--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87061B45-6874-4709-92D4-F579C55605A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D86FC-D8E8-4CAE-A061-1A858947D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="3465" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="2685" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-03 (화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,9 +209,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +517,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,33 +533,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -563,21 +567,21 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
@@ -585,21 +589,21 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
@@ -607,98 +611,98 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
         <v>7</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
         <v>9</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -715,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,37 +738,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -772,25 +776,25 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
@@ -798,25 +802,25 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
@@ -824,78 +828,104 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F7" s="3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="3">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="3">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4" t="s">
-        <v>3</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D86FC-D8E8-4CAE-A061-1A858947D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFF139-38D9-4C70-AB29-ECF2787E6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="2685" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="1995" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>2021-08-03 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 메소드 핸들 기반 오브젝트풀 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트풀 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-04 (수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,6 +876,11 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -872,16 +889,36 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -889,43 +926,26 @@
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFF139-38D9-4C70-AB29-ECF2787E6ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBFAEDE-7C29-4918-82EE-00AD9F5437D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1995" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,15 +104,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유니티 메소드 핸들 기반 오브젝트풀 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트풀 포스팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021-08-04 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 풀 역참조 기반 오브젝트풀 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 오브젝트풀 추가 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-05 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #1 예습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #2 예습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,7 +893,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -896,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -907,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
@@ -916,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
@@ -927,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -935,17 +951,71 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBFAEDE-7C29-4918-82EE-00AD9F5437D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407188E2-D790-46F3-BD04-ADE0CE3B5D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1995" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>인프런 게임서버 강의 Serialization #2 예습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #3 예습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #4 예습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-06 (금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +762,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,6 +976,11 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -972,7 +989,16 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -983,39 +1009,67 @@
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407188E2-D790-46F3-BD04-ADE0CE3B5D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556A722-5DBC-43FF-9073-FF6D9990B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="1995" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="3120" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>2021-08-06 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #1 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #2 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +770,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -1016,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>17</v>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556A722-5DBC-43FF-9073-FF6D9990B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE854B-F154-41E5-BF4A-471526E9DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="3120" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>인프런 게임서버 강의 Serialization #2 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-07 (토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C# Benchmark DotNet 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C# 직렬화 방법 정리 및 벤치마크 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C# 부분 배열 자료형들 정리 및 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #3 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-08 (일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1046,8 +1070,8 @@
       <c r="G17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>17</v>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1066,12 +1090,86 @@
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B9:D9"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE854B-F154-41E5-BF4A-471526E9DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA78296-4F9D-4935-A49A-89D496F0E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="3120" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2085" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>2021-08-08 (일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF8 String 버퍼 활용 직렬화 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 쉐이더 작성(앰플리파이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-09 (월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1157,17 +1169,58 @@
         <v>3</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B2:D2"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA78296-4F9D-4935-A49A-89D496F0E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45141E81-C285-49F9-A253-5452682CDE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="2085" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>2021-08-09 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shockwave 쉐이더 작성(앰플리파이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌더 텍스쳐를 이용해 바닥에 눈 쌓기, 지우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-10 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-11 (수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1211,11 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
@@ -1203,8 +1224,17 @@
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1217,9 +1247,48 @@
       <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F20:H20"/>
@@ -1229,6 +1298,7 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts_TODO/Todo.xlsx
+++ b/_posts_TODO/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdtk\Desktop\Rito_github_io\Rito15.github.io\_posts_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45141E81-C285-49F9-A253-5452682CDE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA60D8-E37D-44D1-A0EC-64EC2BE06C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2085" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2265" windowWidth="16845" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,26 @@
   </si>
   <si>
     <t>2021-08-11 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #4 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 게임서버 강의 Serialization #5 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 스터디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreach, Enumerator, Enumerable 포스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-12 (목)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959126B8-57AC-49EB-B063-9935B9B1675E}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1263,6 +1283,11 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
@@ -1274,6 +1299,15 @@
       <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
@@ -1285,9 +1319,40 @@
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B20:D20"/>
@@ -1299,6 +1364,7 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
